--- a/005930 Samsung.xlsx
+++ b/005930 Samsung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F706EAF-54FB-422D-9F57-BFD7AC28A320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8A2D47-45CB-4BD9-ADB6-7D4F6E024576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49980" yWindow="2610" windowWidth="21720" windowHeight="17280" activeTab="1" xr2:uid="{6A2719AE-EB82-44C6-B150-281E64F8B0C6}"/>
+    <workbookView xWindow="-31920" yWindow="1740" windowWidth="30165" windowHeight="16515" xr2:uid="{6A2719AE-EB82-44C6-B150-281E64F8B0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Price KRW</t>
   </si>
@@ -142,6 +142,36 @@
   </si>
   <si>
     <t>S24</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
   </si>
 </sst>
 </file>
@@ -151,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -178,12 +208,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -245,6 +269,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AF8893-4CF8-3916-FF53-DF1C5AFD7A74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12948557" y="10886"/>
+          <a:ext cx="0" cy="5856514"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975E36D8-8BEC-401C-85FF-B30C364282EA}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -690,13 +769,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7607B31-AFAC-4034-9829-B9D8FF64661F}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22:U22"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -706,12 +785,12 @@
     <col min="3" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -763,8 +842,52 @@
       <c r="U2">
         <v>2024</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V2">
+        <f>+U2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="W2">
+        <f>+V2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="X2">
+        <f>+W2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="Y2">
+        <f>+X2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="Z2">
+        <f>+Y2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AA2">
+        <f>+Z2+1</f>
+        <v>2030</v>
+      </c>
+      <c r="AB2">
+        <f>+AA2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="AC2">
+        <f>+AB2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="AD2">
+        <f>+AC2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="AE2">
+        <f>+AD2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="AF2">
+        <f>+AE2+1</f>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -789,7 +912,7 @@
         <v>174.9</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
@@ -819,7 +942,7 @@
         <v>26.599999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
@@ -844,7 +967,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
@@ -869,7 +992,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -894,7 +1017,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -940,7 +1063,10 @@
         <v>300.89999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -976,7 +1102,10 @@
         <v>180.38857999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -989,39 +1118,42 @@
         <v>28.5</v>
       </c>
       <c r="M10" s="2">
-        <f>+M8-M9</f>
+        <f t="shared" ref="M10:T10" si="0">+M8-M9</f>
         <v>81.589745000000008</v>
       </c>
       <c r="N10" s="2">
-        <f>+N8-N9</f>
+        <f t="shared" si="0"/>
         <v>110.28537600000001</v>
       </c>
       <c r="O10" s="2">
-        <f>+O8-O9</f>
+        <f t="shared" si="0"/>
         <v>111.377015</v>
       </c>
       <c r="P10" s="2">
-        <f>+P8-P9</f>
+        <f t="shared" si="0"/>
         <v>83.161331999999987</v>
       </c>
       <c r="Q10" s="2">
-        <f>+Q8-Q9</f>
+        <f t="shared" si="0"/>
         <v>92.318000000000012</v>
       </c>
       <c r="R10" s="2">
-        <f>+R8-R9</f>
+        <f t="shared" si="0"/>
         <v>113.19344799999999</v>
       </c>
       <c r="S10" s="2">
-        <f>+S8-S9</f>
+        <f t="shared" si="0"/>
         <v>112.19036</v>
       </c>
       <c r="T10" s="2">
-        <f>+T8-T9</f>
+        <f t="shared" si="0"/>
         <v>78.511419999999987</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1058,7 +1190,7 @@
         <v>71.979938000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1070,7 +1202,10 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1083,39 +1218,42 @@
         <v>22</v>
       </c>
       <c r="M13" s="2">
-        <f>+M11+M12</f>
+        <f t="shared" ref="M13:T13" si="1">+M11+M12</f>
         <v>52.347999999999999</v>
       </c>
       <c r="N13" s="2">
-        <f>+N11+N12</f>
+        <f t="shared" si="1"/>
         <v>56.639670000000002</v>
       </c>
       <c r="O13" s="2">
-        <f>+O11+O12</f>
+        <f t="shared" si="1"/>
         <v>52.49</v>
       </c>
       <c r="P13" s="2">
-        <f>+P11+P12</f>
+        <f t="shared" si="1"/>
         <v>55.392823</v>
       </c>
       <c r="Q13" s="2">
-        <f>+Q11+Q12</f>
+        <f t="shared" si="1"/>
         <v>56.323999999999998</v>
       </c>
       <c r="R13" s="2">
-        <f>+R11+R12</f>
+        <f t="shared" si="1"/>
         <v>61.559600000000003</v>
       </c>
       <c r="S13" s="2">
-        <f>+S11+S12</f>
+        <f t="shared" si="1"/>
         <v>68.812960000000004</v>
       </c>
       <c r="T13" s="2">
-        <f>+T11+T12</f>
+        <f t="shared" si="1"/>
         <v>71.979938000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1128,39 +1266,39 @@
         <v>6.5</v>
       </c>
       <c r="M14" s="2">
-        <f>+M10-M13</f>
+        <f t="shared" ref="M14:T14" si="2">+M10-M13</f>
         <v>29.241745000000009</v>
       </c>
       <c r="N14" s="2">
-        <f>+N10-N13</f>
+        <f t="shared" si="2"/>
         <v>53.645706000000011</v>
       </c>
       <c r="O14" s="2">
-        <f>+O10-O13</f>
+        <f t="shared" si="2"/>
         <v>58.887014999999998</v>
       </c>
       <c r="P14" s="2">
-        <f>+P10-P13</f>
+        <f t="shared" si="2"/>
         <v>27.768508999999987</v>
       </c>
       <c r="Q14" s="2">
-        <f>+Q10-Q13</f>
+        <f t="shared" si="2"/>
         <v>35.994000000000014</v>
       </c>
       <c r="R14" s="2">
-        <f>+R10-R13</f>
+        <f t="shared" si="2"/>
         <v>51.633847999999986</v>
       </c>
       <c r="S14" s="2">
-        <f>+S10-S13</f>
+        <f t="shared" si="2"/>
         <v>43.377399999999994</v>
       </c>
       <c r="T14" s="2">
-        <f>+T10-T13</f>
+        <f t="shared" si="2"/>
         <v>6.5314819999999827</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1172,7 +1310,10 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1185,43 +1326,46 @@
         <v>7.7</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" ref="M16:U16" si="0">+M14+M15</f>
+        <f t="shared" ref="M16:U16" si="3">+M14+M15</f>
         <v>29.241745000000009</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>53.645706000000011</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>58.887014999999998</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>27.768508999999987</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>35.994000000000014</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>51.633847999999986</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>43.377399999999994</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.5314819999999827</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1251,7 +1395,10 @@
         <v>13.444376999999999</v>
       </c>
     </row>
-    <row r="18" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1264,43 +1411,46 @@
         <v>7.5</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" ref="M18:U18" si="1">+M16-M17</f>
+        <f t="shared" ref="M18:U18" si="4">+M16-M17</f>
         <v>21.254185000000007</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>39.636706000000011</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>42.071914999999997</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19.075184999999987</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26.056715000000015</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38.189470999999983</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>43.377399999999994</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.5314819999999827</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1339,7 +1489,10 @@
         <v>72980</v>
       </c>
     </row>
-    <row r="21" spans="3:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1378,7 +1531,10 @@
         <v>51410</v>
       </c>
     </row>
-    <row r="22" spans="3:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1391,39 +1547,39 @@
         <v>6930</v>
       </c>
       <c r="M22" s="9">
-        <f>+M20-M21</f>
+        <f t="shared" ref="M22:U22" si="5">+M20-M21</f>
         <v>23242.670999999998</v>
       </c>
       <c r="N22" s="9">
-        <f>+N20-N21</f>
+        <f t="shared" si="5"/>
         <v>19369.807000000001</v>
       </c>
       <c r="O22" s="9">
-        <f>+O20-O21</f>
+        <f t="shared" si="5"/>
         <v>37475.456999999995</v>
       </c>
       <c r="P22" s="9">
-        <f>+P20-P21</f>
+        <f t="shared" si="5"/>
         <v>20015.159</v>
       </c>
       <c r="Q22" s="9">
-        <f>+Q20-Q21</f>
+        <f t="shared" si="5"/>
         <v>27694.974999999999</v>
       </c>
       <c r="R22" s="9">
-        <f>+R20-R21</f>
+        <f t="shared" si="5"/>
         <v>17983.341999999997</v>
       </c>
       <c r="S22" s="9">
-        <f>+S20-S21</f>
+        <f t="shared" si="5"/>
         <v>12750.917999999998</v>
       </c>
       <c r="T22" s="9">
-        <f>+T20-T21</f>
+        <f t="shared" si="5"/>
         <v>-13480</v>
       </c>
       <c r="U22" s="9">
-        <f>+U20-U21</f>
+        <f t="shared" si="5"/>
         <v>21570</v>
       </c>
     </row>
@@ -1432,6 +1588,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4BBFEE7C-0A2B-4AE9-B908-0CFC30E63FA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>